--- a/diem.xlsx
+++ b/diem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\STUDENT_SCORE_MANAGEMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SSM\STUDENT_SCORE_MANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8A697A-FDDC-454C-96C5-9F2C8E0AFC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59936B6-CEF9-40EE-A3B1-4091AC8033AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -372,35 +372,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>8</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/diem.xlsx
+++ b/diem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SSM\STUDENT_SCORE_MANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59936B6-CEF9-40EE-A3B1-4091AC8033AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3149C-49DD-4560-9B56-08565713D8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -372,13 +372,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
